--- a/INTLINE/data/136/BOI/Claims on non-euro area residents denominated in foreign currency.xlsx
+++ b/INTLINE/data/136/BOI/Claims on non-euro area residents denominated in foreign currency.xlsx
@@ -155,14 +155,14 @@
       <c r="A2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022-02-28</t>
+            <t xml:space="preserve">2022-05-31</t>
           </r>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">74580.5</t>
+            <t xml:space="preserve">76026.1</t>
           </r>
         </is>
       </c>
@@ -171,14 +171,14 @@
       <c r="A3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022-01-31</t>
+            <t xml:space="preserve">2022-04-30</t>
           </r>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">74786.9</t>
+            <t xml:space="preserve">76827.4</t>
           </r>
         </is>
       </c>
@@ -187,14 +187,14 @@
       <c r="A4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-12-31</t>
+            <t xml:space="preserve">2022-03-31</t>
           </r>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">74171.7</t>
+            <t xml:space="preserve">74333.7</t>
           </r>
         </is>
       </c>
@@ -203,14 +203,14 @@
       <c r="A5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-11-30</t>
+            <t xml:space="preserve">2022-02-28</t>
           </r>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">73745.7</t>
+            <t xml:space="preserve">74580.5</t>
           </r>
         </is>
       </c>
@@ -219,14 +219,14 @@
       <c r="A6" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-10-31</t>
+            <t xml:space="preserve">2022-01-31</t>
           </r>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">72304</t>
+            <t xml:space="preserve">74786.9</t>
           </r>
         </is>
       </c>
@@ -235,14 +235,14 @@
       <c r="A7" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-09-30</t>
+            <t xml:space="preserve">2021-12-31</t>
           </r>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">72184.5</t>
+            <t xml:space="preserve">74171.7</t>
           </r>
         </is>
       </c>
@@ -251,14 +251,14 @@
       <c r="A8" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-08-31</t>
+            <t xml:space="preserve">2021-11-30</t>
           </r>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">70941.6</t>
+            <t xml:space="preserve">73745.7</t>
           </r>
         </is>
       </c>
@@ -267,14 +267,14 @@
       <c r="A9" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-07-31</t>
+            <t xml:space="preserve">2021-10-31</t>
           </r>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">53451.5</t>
+            <t xml:space="preserve">72304</t>
           </r>
         </is>
       </c>
@@ -283,14 +283,14 @@
       <c r="A10" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-06-30</t>
+            <t xml:space="preserve">2021-09-30</t>
           </r>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">53106.3</t>
+            <t xml:space="preserve">72184.5</t>
           </r>
         </is>
       </c>
@@ -299,14 +299,14 @@
       <c r="A11" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-05-31</t>
+            <t xml:space="preserve">2021-08-31</t>
           </r>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50711.9</t>
+            <t xml:space="preserve">70941.6</t>
           </r>
         </is>
       </c>
@@ -315,14 +315,14 @@
       <c r="A12" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-04-30</t>
+            <t xml:space="preserve">2021-07-31</t>
           </r>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50627.7</t>
+            <t xml:space="preserve">53451.5</t>
           </r>
         </is>
       </c>
@@ -331,14 +331,14 @@
       <c r="A13" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-03-31</t>
+            <t xml:space="preserve">2021-06-30</t>
           </r>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">51182.9</t>
+            <t xml:space="preserve">53106.3</t>
           </r>
         </is>
       </c>
@@ -347,14 +347,14 @@
       <c r="A14" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-02-28</t>
+            <t xml:space="preserve">2021-05-31</t>
           </r>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50280.7</t>
+            <t xml:space="preserve">50711.9</t>
           </r>
         </is>
       </c>
@@ -363,14 +363,14 @@
       <c r="A15" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2021-01-31</t>
+            <t xml:space="preserve">2021-04-30</t>
           </r>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">49989.4</t>
+            <t xml:space="preserve">50627.7</t>
           </r>
         </is>
       </c>
@@ -379,14 +379,14 @@
       <c r="A16" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-12-31</t>
+            <t xml:space="preserve">2021-03-31</t>
           </r>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50259.2</t>
+            <t xml:space="preserve">51182.9</t>
           </r>
         </is>
       </c>
@@ -395,14 +395,14 @@
       <c r="A17" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-11-30</t>
+            <t xml:space="preserve">2021-02-28</t>
           </r>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50709.8</t>
+            <t xml:space="preserve">50280.7</t>
           </r>
         </is>
       </c>
@@ -411,14 +411,14 @@
       <c r="A18" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-10-31</t>
+            <t xml:space="preserve">2021-01-31</t>
           </r>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">51250.5</t>
+            <t xml:space="preserve">49989.4</t>
           </r>
         </is>
       </c>
@@ -427,14 +427,14 @@
       <c r="A19" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-09-30</t>
+            <t xml:space="preserve">2020-12-31</t>
           </r>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">51596.8</t>
+            <t xml:space="preserve">50259.2</t>
           </r>
         </is>
       </c>
@@ -443,14 +443,14 @@
       <c r="A20" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-08-31</t>
+            <t xml:space="preserve">2020-11-30</t>
           </r>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">49620.3</t>
+            <t xml:space="preserve">50709.8</t>
           </r>
         </is>
       </c>
@@ -459,14 +459,14 @@
       <c r="A21" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-07-31</t>
+            <t xml:space="preserve">2020-10-31</t>
           </r>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">48534.3</t>
+            <t xml:space="preserve">51250.5</t>
           </r>
         </is>
       </c>
@@ -475,14 +475,14 @@
       <c r="A22" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-06-30</t>
+            <t xml:space="preserve">2020-09-30</t>
           </r>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50112.7</t>
+            <t xml:space="preserve">51596.8</t>
           </r>
         </is>
       </c>
@@ -491,14 +491,14 @@
       <c r="A23" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-05-31</t>
+            <t xml:space="preserve">2020-08-31</t>
           </r>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50402.2</t>
+            <t xml:space="preserve">49620.3</t>
           </r>
         </is>
       </c>
@@ -507,14 +507,14 @@
       <c r="A24" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-04-30</t>
+            <t xml:space="preserve">2020-07-31</t>
           </r>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">51537.2</t>
+            <t xml:space="preserve">48534.3</t>
           </r>
         </is>
       </c>
@@ -523,14 +523,14 @@
       <c r="A25" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-03-31</t>
+            <t xml:space="preserve">2020-06-30</t>
           </r>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50919.5</t>
+            <t xml:space="preserve">50112.7</t>
           </r>
         </is>
       </c>
@@ -539,14 +539,14 @@
       <c r="A26" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-02-29</t>
+            <t xml:space="preserve">2020-05-31</t>
           </r>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50503.2</t>
+            <t xml:space="preserve">50402.2</t>
           </r>
         </is>
       </c>
@@ -555,14 +555,14 @@
       <c r="A27" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2020-01-31</t>
+            <t xml:space="preserve">2020-04-30</t>
           </r>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">49972.1</t>
+            <t xml:space="preserve">51537.2</t>
           </r>
         </is>
       </c>
@@ -571,14 +571,14 @@
       <c r="A28" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-12-31</t>
+            <t xml:space="preserve">2020-03-31</t>
           </r>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">49305.1</t>
+            <t xml:space="preserve">50919.5</t>
           </r>
         </is>
       </c>
@@ -587,14 +587,14 @@
       <c r="A29" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-11-30</t>
+            <t xml:space="preserve">2020-02-29</t>
           </r>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">49324.7</t>
+            <t xml:space="preserve">50503.2</t>
           </r>
         </is>
       </c>
@@ -603,14 +603,14 @@
       <c r="A30" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-10-31</t>
+            <t xml:space="preserve">2020-01-31</t>
           </r>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">49406.8</t>
+            <t xml:space="preserve">49972.1</t>
           </r>
         </is>
       </c>
@@ -619,14 +619,14 @@
       <c r="A31" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-09-30</t>
+            <t xml:space="preserve">2019-12-31</t>
           </r>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">49590.6</t>
+            <t xml:space="preserve">49305.1</t>
           </r>
         </is>
       </c>
@@ -635,14 +635,14 @@
       <c r="A32" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-08-31</t>
+            <t xml:space="preserve">2019-11-30</t>
           </r>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">48668.1</t>
+            <t xml:space="preserve">49324.7</t>
           </r>
         </is>
       </c>
@@ -651,14 +651,14 @@
       <c r="A33" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-07-31</t>
+            <t xml:space="preserve">2019-10-31</t>
           </r>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">48835.2</t>
+            <t xml:space="preserve">49406.8</t>
           </r>
         </is>
       </c>
@@ -667,14 +667,14 @@
       <c r="A34" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-06-30</t>
+            <t xml:space="preserve">2019-09-30</t>
           </r>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">47266.6</t>
+            <t xml:space="preserve">49590.6</t>
           </r>
         </is>
       </c>
@@ -683,14 +683,14 @@
       <c r="A35" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-05-31</t>
+            <t xml:space="preserve">2019-08-31</t>
           </r>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">48412.7</t>
+            <t xml:space="preserve">48668.1</t>
           </r>
         </is>
       </c>
@@ -699,14 +699,14 @@
       <c r="A36" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-04-30</t>
+            <t xml:space="preserve">2019-07-31</t>
           </r>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">47403.2</t>
+            <t xml:space="preserve">48835.2</t>
           </r>
         </is>
       </c>
@@ -715,14 +715,14 @@
       <c r="A37" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-03-31</t>
+            <t xml:space="preserve">2019-06-30</t>
           </r>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">46552.6</t>
+            <t xml:space="preserve">47266.6</t>
           </r>
         </is>
       </c>
@@ -731,14 +731,14 @@
       <c r="A38" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-02-28</t>
+            <t xml:space="preserve">2019-05-31</t>
           </r>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">45052.3</t>
+            <t xml:space="preserve">48412.7</t>
           </r>
         </is>
       </c>
@@ -747,14 +747,14 @@
       <c r="A39" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2019-01-31</t>
+            <t xml:space="preserve">2019-04-30</t>
           </r>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">44830.4</t>
+            <t xml:space="preserve">47403.2</t>
           </r>
         </is>
       </c>
@@ -763,14 +763,14 @@
       <c r="A40" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-12-31</t>
+            <t xml:space="preserve">2019-03-31</t>
           </r>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">44828.7</t>
+            <t xml:space="preserve">46552.6</t>
           </r>
         </is>
       </c>
@@ -779,14 +779,14 @@
       <c r="A41" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-11-30</t>
+            <t xml:space="preserve">2019-02-28</t>
           </r>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">44513.6</t>
+            <t xml:space="preserve">45052.3</t>
           </r>
         </is>
       </c>
@@ -795,14 +795,14 @@
       <c r="A42" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-10-31</t>
+            <t xml:space="preserve">2019-01-31</t>
           </r>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">43959.4</t>
+            <t xml:space="preserve">44830.4</t>
           </r>
         </is>
       </c>
@@ -811,14 +811,14 @@
       <c r="A43" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-09-30</t>
+            <t xml:space="preserve">2018-12-31</t>
           </r>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">43403.4</t>
+            <t xml:space="preserve">44828.7</t>
           </r>
         </is>
       </c>
@@ -827,14 +827,14 @@
       <c r="A44" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-08-31</t>
+            <t xml:space="preserve">2018-11-30</t>
           </r>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">43241.3</t>
+            <t xml:space="preserve">44513.6</t>
           </r>
         </is>
       </c>
@@ -843,14 +843,14 @@
       <c r="A45" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-07-31</t>
+            <t xml:space="preserve">2018-10-31</t>
           </r>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">43006.2</t>
+            <t xml:space="preserve">43959.4</t>
           </r>
         </is>
       </c>
@@ -859,14 +859,14 @@
       <c r="A46" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-06-30</t>
+            <t xml:space="preserve">2018-09-30</t>
           </r>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42871.1</t>
+            <t xml:space="preserve">43403.4</t>
           </r>
         </is>
       </c>
@@ -875,14 +875,14 @@
       <c r="A47" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-05-31</t>
+            <t xml:space="preserve">2018-08-31</t>
           </r>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42277.4</t>
+            <t xml:space="preserve">43241.3</t>
           </r>
         </is>
       </c>
@@ -891,14 +891,14 @@
       <c r="A48" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-04-30</t>
+            <t xml:space="preserve">2018-07-31</t>
           </r>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40457.2</t>
+            <t xml:space="preserve">43006.2</t>
           </r>
         </is>
       </c>
@@ -907,14 +907,14 @@
       <c r="A49" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-03-31</t>
+            <t xml:space="preserve">2018-06-30</t>
           </r>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40235.4</t>
+            <t xml:space="preserve">42871.1</t>
           </r>
         </is>
       </c>
@@ -923,14 +923,14 @@
       <c r="A50" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-02-28</t>
+            <t xml:space="preserve">2018-05-31</t>
           </r>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40059.9</t>
+            <t xml:space="preserve">42277.4</t>
           </r>
         </is>
       </c>
@@ -939,14 +939,14 @@
       <c r="A51" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2018-01-31</t>
+            <t xml:space="preserve">2018-04-30</t>
           </r>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39525.9</t>
+            <t xml:space="preserve">40457.2</t>
           </r>
         </is>
       </c>
@@ -955,14 +955,14 @@
       <c r="A52" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-12-31</t>
+            <t xml:space="preserve">2018-03-31</t>
           </r>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40789.1</t>
+            <t xml:space="preserve">40235.4</t>
           </r>
         </is>
       </c>
@@ -971,14 +971,14 @@
       <c r="A53" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-11-30</t>
+            <t xml:space="preserve">2018-02-28</t>
           </r>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41020.8</t>
+            <t xml:space="preserve">40059.9</t>
           </r>
         </is>
       </c>
@@ -987,14 +987,14 @@
       <c r="A54" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-10-31</t>
+            <t xml:space="preserve">2018-01-31</t>
           </r>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41882.5</t>
+            <t xml:space="preserve">39525.9</t>
           </r>
         </is>
       </c>
@@ -1003,14 +1003,14 @@
       <c r="A55" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-09-30</t>
+            <t xml:space="preserve">2017-12-31</t>
           </r>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41330.5</t>
+            <t xml:space="preserve">40789.1</t>
           </r>
         </is>
       </c>
@@ -1019,14 +1019,14 @@
       <c r="A56" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-08-31</t>
+            <t xml:space="preserve">2017-11-30</t>
           </r>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41044.2</t>
+            <t xml:space="preserve">41020.8</t>
           </r>
         </is>
       </c>
@@ -1035,14 +1035,14 @@
       <c r="A57" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-07-31</t>
+            <t xml:space="preserve">2017-10-31</t>
           </r>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41588.9</t>
+            <t xml:space="preserve">41882.5</t>
           </r>
         </is>
       </c>
@@ -1051,14 +1051,14 @@
       <c r="A58" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-06-30</t>
+            <t xml:space="preserve">2017-09-30</t>
           </r>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42435</t>
+            <t xml:space="preserve">41330.5</t>
           </r>
         </is>
       </c>
@@ -1067,14 +1067,14 @@
       <c r="A59" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-05-31</t>
+            <t xml:space="preserve">2017-08-31</t>
           </r>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">43097.7</t>
+            <t xml:space="preserve">41044.2</t>
           </r>
         </is>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="A60" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-04-30</t>
+            <t xml:space="preserve">2017-07-31</t>
           </r>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">43899.4</t>
+            <t xml:space="preserve">41588.9</t>
           </r>
         </is>
       </c>
@@ -1099,14 +1099,14 @@
       <c r="A61" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-03-31</t>
+            <t xml:space="preserve">2017-06-30</t>
           </r>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42644.4</t>
+            <t xml:space="preserve">42435</t>
           </r>
         </is>
       </c>
@@ -1115,14 +1115,14 @@
       <c r="A62" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-02-28</t>
+            <t xml:space="preserve">2017-05-31</t>
           </r>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42916.7</t>
+            <t xml:space="preserve">43097.7</t>
           </r>
         </is>
       </c>
@@ -1131,14 +1131,14 @@
       <c r="A63" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2017-01-31</t>
+            <t xml:space="preserve">2017-04-30</t>
           </r>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42148.5</t>
+            <t xml:space="preserve">43899.4</t>
           </r>
         </is>
       </c>
@@ -1147,14 +1147,14 @@
       <c r="A64" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-12-31</t>
+            <t xml:space="preserve">2017-03-31</t>
           </r>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42503.6</t>
+            <t xml:space="preserve">42644.4</t>
           </r>
         </is>
       </c>
@@ -1163,14 +1163,14 @@
       <c r="A65" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-11-30</t>
+            <t xml:space="preserve">2017-02-28</t>
           </r>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42607.7</t>
+            <t xml:space="preserve">42916.7</t>
           </r>
         </is>
       </c>
@@ -1179,14 +1179,14 @@
       <c r="A66" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-10-31</t>
+            <t xml:space="preserve">2017-01-31</t>
           </r>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42248</t>
+            <t xml:space="preserve">42148.5</t>
           </r>
         </is>
       </c>
@@ -1195,14 +1195,14 @@
       <c r="A67" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-09-30</t>
+            <t xml:space="preserve">2016-12-31</t>
           </r>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41724.1</t>
+            <t xml:space="preserve">42503.6</t>
           </r>
         </is>
       </c>
@@ -1211,14 +1211,14 @@
       <c r="A68" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-08-31</t>
+            <t xml:space="preserve">2016-11-30</t>
           </r>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41196.5</t>
+            <t xml:space="preserve">42607.7</t>
           </r>
         </is>
       </c>
@@ -1227,14 +1227,14 @@
       <c r="A69" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-07-31</t>
+            <t xml:space="preserve">2016-10-31</t>
           </r>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41298.7</t>
+            <t xml:space="preserve">42248</t>
           </r>
         </is>
       </c>
@@ -1243,14 +1243,14 @@
       <c r="A70" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-06-30</t>
+            <t xml:space="preserve">2016-09-30</t>
           </r>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41385.3</t>
+            <t xml:space="preserve">41724.1</t>
           </r>
         </is>
       </c>
@@ -1259,14 +1259,14 @@
       <c r="A71" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-05-31</t>
+            <t xml:space="preserve">2016-08-31</t>
           </r>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41039.3</t>
+            <t xml:space="preserve">41196.5</t>
           </r>
         </is>
       </c>
@@ -1275,14 +1275,14 @@
       <c r="A72" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-04-30</t>
+            <t xml:space="preserve">2016-07-31</t>
           </r>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40663.1</t>
+            <t xml:space="preserve">41298.7</t>
           </r>
         </is>
       </c>
@@ -1291,14 +1291,14 @@
       <c r="A73" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-03-31</t>
+            <t xml:space="preserve">2016-06-30</t>
           </r>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40306.3</t>
+            <t xml:space="preserve">41385.3</t>
           </r>
         </is>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="A74" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-02-29</t>
+            <t xml:space="preserve">2016-05-31</t>
           </r>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41520.1</t>
+            <t xml:space="preserve">41039.3</t>
           </r>
         </is>
       </c>
@@ -1323,14 +1323,14 @@
       <c r="A75" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2016-01-31</t>
+            <t xml:space="preserve">2016-04-30</t>
           </r>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42873.5</t>
+            <t xml:space="preserve">40663.1</t>
           </r>
         </is>
       </c>
@@ -1339,14 +1339,14 @@
       <c r="A76" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-12-31</t>
+            <t xml:space="preserve">2016-03-31</t>
           </r>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">43202.3</t>
+            <t xml:space="preserve">40306.3</t>
           </r>
         </is>
       </c>
@@ -1355,14 +1355,14 @@
       <c r="A77" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-11-30</t>
+            <t xml:space="preserve">2016-02-29</t>
           </r>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">44282.2</t>
+            <t xml:space="preserve">41520.1</t>
           </r>
         </is>
       </c>
@@ -1371,14 +1371,14 @@
       <c r="A78" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-10-31</t>
+            <t xml:space="preserve">2016-01-31</t>
           </r>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42889.9</t>
+            <t xml:space="preserve">42873.5</t>
           </r>
         </is>
       </c>
@@ -1387,14 +1387,14 @@
       <c r="A79" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-09-30</t>
+            <t xml:space="preserve">2015-12-31</t>
           </r>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42255.9</t>
+            <t xml:space="preserve">43202.3</t>
           </r>
         </is>
       </c>
@@ -1403,14 +1403,14 @@
       <c r="A80" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-08-31</t>
+            <t xml:space="preserve">2015-11-30</t>
           </r>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42090.2</t>
+            <t xml:space="preserve">44282.2</t>
           </r>
         </is>
       </c>
@@ -1419,14 +1419,14 @@
       <c r="A81" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-07-31</t>
+            <t xml:space="preserve">2015-10-31</t>
           </r>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42678.6</t>
+            <t xml:space="preserve">42889.9</t>
           </r>
         </is>
       </c>
@@ -1435,14 +1435,14 @@
       <c r="A82" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-06-30</t>
+            <t xml:space="preserve">2015-09-30</t>
           </r>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42470.5</t>
+            <t xml:space="preserve">42255.9</t>
           </r>
         </is>
       </c>
@@ -1451,14 +1451,14 @@
       <c r="A83" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-05-31</t>
+            <t xml:space="preserve">2015-08-31</t>
           </r>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42104.8</t>
+            <t xml:space="preserve">42090.2</t>
           </r>
         </is>
       </c>
@@ -1467,14 +1467,14 @@
       <c r="A84" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-04-30</t>
+            <t xml:space="preserve">2015-07-31</t>
           </r>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41799.8</t>
+            <t xml:space="preserve">42678.6</t>
           </r>
         </is>
       </c>
@@ -1483,14 +1483,14 @@
       <c r="A85" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-03-31</t>
+            <t xml:space="preserve">2015-06-30</t>
           </r>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">43051.5</t>
+            <t xml:space="preserve">42470.5</t>
           </r>
         </is>
       </c>
@@ -1499,14 +1499,14 @@
       <c r="A86" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-02-28</t>
+            <t xml:space="preserve">2015-05-31</t>
           </r>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41872.7</t>
+            <t xml:space="preserve">42104.8</t>
           </r>
         </is>
       </c>
@@ -1515,14 +1515,14 @@
       <c r="A87" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2015-01-31</t>
+            <t xml:space="preserve">2015-04-30</t>
           </r>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">41862</t>
+            <t xml:space="preserve">41799.8</t>
           </r>
         </is>
       </c>
@@ -1531,14 +1531,14 @@
       <c r="A88" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-12-31</t>
+            <t xml:space="preserve">2015-03-31</t>
           </r>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39277.9</t>
+            <t xml:space="preserve">43051.5</t>
           </r>
         </is>
       </c>
@@ -1547,14 +1547,14 @@
       <c r="A89" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-11-30</t>
+            <t xml:space="preserve">2015-02-28</t>
           </r>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38751.8</t>
+            <t xml:space="preserve">41872.7</t>
           </r>
         </is>
       </c>
@@ -1563,14 +1563,14 @@
       <c r="A90" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-10-31</t>
+            <t xml:space="preserve">2015-01-31</t>
           </r>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38791.7</t>
+            <t xml:space="preserve">41862</t>
           </r>
         </is>
       </c>
@@ -1579,14 +1579,14 @@
       <c r="A91" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-09-30</t>
+            <t xml:space="preserve">2014-12-31</t>
           </r>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39410.3</t>
+            <t xml:space="preserve">39277.9</t>
           </r>
         </is>
       </c>
@@ -1595,14 +1595,14 @@
       <c r="A92" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-08-31</t>
+            <t xml:space="preserve">2014-11-30</t>
           </r>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38408.6</t>
+            <t xml:space="preserve">38751.8</t>
           </r>
         </is>
       </c>
@@ -1611,14 +1611,14 @@
       <c r="A93" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-07-31</t>
+            <t xml:space="preserve">2014-10-31</t>
           </r>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38158.9</t>
+            <t xml:space="preserve">38791.7</t>
           </r>
         </is>
       </c>
@@ -1627,14 +1627,14 @@
       <c r="A94" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-06-30</t>
+            <t xml:space="preserve">2014-09-30</t>
           </r>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37323.4</t>
+            <t xml:space="preserve">39410.3</t>
           </r>
         </is>
       </c>
@@ -1643,14 +1643,14 @@
       <c r="A95" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-05-31</t>
+            <t xml:space="preserve">2014-08-31</t>
           </r>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37453.9</t>
+            <t xml:space="preserve">38408.6</t>
           </r>
         </is>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="A96" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-04-30</t>
+            <t xml:space="preserve">2014-07-31</t>
           </r>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37010.2</t>
+            <t xml:space="preserve">38158.9</t>
           </r>
         </is>
       </c>
@@ -1675,14 +1675,14 @@
       <c r="A97" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-03-31</t>
+            <t xml:space="preserve">2014-06-30</t>
           </r>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36893.5</t>
+            <t xml:space="preserve">37323.4</t>
           </r>
         </is>
       </c>
@@ -1691,14 +1691,14 @@
       <c r="A98" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-02-28</t>
+            <t xml:space="preserve">2014-05-31</t>
           </r>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36701.8</t>
+            <t xml:space="preserve">37453.9</t>
           </r>
         </is>
       </c>
@@ -1707,14 +1707,14 @@
       <c r="A99" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2014-01-31</t>
+            <t xml:space="preserve">2014-04-30</t>
           </r>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37735.1</t>
+            <t xml:space="preserve">37010.2</t>
           </r>
         </is>
       </c>
@@ -1723,14 +1723,14 @@
       <c r="A100" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-12-31</t>
+            <t xml:space="preserve">2014-03-31</t>
           </r>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36825.3</t>
+            <t xml:space="preserve">36893.5</t>
           </r>
         </is>
       </c>
@@ -1739,14 +1739,14 @@
       <c r="A101" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-11-30</t>
+            <t xml:space="preserve">2014-02-28</t>
           </r>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37294.1</t>
+            <t xml:space="preserve">36701.8</t>
           </r>
         </is>
       </c>
@@ -1755,14 +1755,14 @@
       <c r="A102" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-10-31</t>
+            <t xml:space="preserve">2014-01-31</t>
           </r>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37287.2</t>
+            <t xml:space="preserve">37735.1</t>
           </r>
         </is>
       </c>
@@ -1771,14 +1771,14 @@
       <c r="A103" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-09-30</t>
+            <t xml:space="preserve">2013-12-31</t>
           </r>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37965.3</t>
+            <t xml:space="preserve">36825.3</t>
           </r>
         </is>
       </c>
@@ -1787,14 +1787,14 @@
       <c r="A104" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-08-31</t>
+            <t xml:space="preserve">2013-11-30</t>
           </r>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38447.9</t>
+            <t xml:space="preserve">37294.1</t>
           </r>
         </is>
       </c>
@@ -1803,14 +1803,14 @@
       <c r="A105" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-07-31</t>
+            <t xml:space="preserve">2013-10-31</t>
           </r>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38481.4</t>
+            <t xml:space="preserve">37287.2</t>
           </r>
         </is>
       </c>
@@ -1819,14 +1819,14 @@
       <c r="A106" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-06-30</t>
+            <t xml:space="preserve">2013-09-30</t>
           </r>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38798.4</t>
+            <t xml:space="preserve">37965.3</t>
           </r>
         </is>
       </c>
@@ -1835,14 +1835,14 @@
       <c r="A107" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-05-31</t>
+            <t xml:space="preserve">2013-08-31</t>
           </r>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39180.9</t>
+            <t xml:space="preserve">38447.9</t>
           </r>
         </is>
       </c>
@@ -1851,14 +1851,14 @@
       <c r="A108" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-04-30</t>
+            <t xml:space="preserve">2013-07-31</t>
           </r>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38811.2</t>
+            <t xml:space="preserve">38481.4</t>
           </r>
         </is>
       </c>
@@ -1867,14 +1867,14 @@
       <c r="A109" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-03-31</t>
+            <t xml:space="preserve">2013-06-30</t>
           </r>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38998.9</t>
+            <t xml:space="preserve">38798.4</t>
           </r>
         </is>
       </c>
@@ -1883,14 +1883,14 @@
       <c r="A110" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-02-28</t>
+            <t xml:space="preserve">2013-05-31</t>
           </r>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38365.1</t>
+            <t xml:space="preserve">39180.9</t>
           </r>
         </is>
       </c>
@@ -1899,14 +1899,14 @@
       <c r="A111" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2013-01-31</t>
+            <t xml:space="preserve">2013-04-30</t>
           </r>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37209.9</t>
+            <t xml:space="preserve">38811.2</t>
           </r>
         </is>
       </c>
@@ -1915,14 +1915,14 @@
       <c r="A112" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-12-31</t>
+            <t xml:space="preserve">2013-03-31</t>
           </r>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38283.7</t>
+            <t xml:space="preserve">38998.9</t>
           </r>
         </is>
       </c>
@@ -1931,14 +1931,14 @@
       <c r="A113" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-11-30</t>
+            <t xml:space="preserve">2013-02-28</t>
           </r>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39060.7</t>
+            <t xml:space="preserve">38365.1</t>
           </r>
         </is>
       </c>
@@ -1947,14 +1947,14 @@
       <c r="A114" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-10-31</t>
+            <t xml:space="preserve">2013-01-31</t>
           </r>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39559.7</t>
+            <t xml:space="preserve">37209.9</t>
           </r>
         </is>
       </c>
@@ -1963,14 +1963,14 @@
       <c r="A115" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-09-30</t>
+            <t xml:space="preserve">2012-12-31</t>
           </r>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">39634.3</t>
+            <t xml:space="preserve">38283.7</t>
           </r>
         </is>
       </c>
@@ -1979,14 +1979,14 @@
       <c r="A116" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-08-31</t>
+            <t xml:space="preserve">2012-11-30</t>
           </r>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40104.6</t>
+            <t xml:space="preserve">39060.7</t>
           </r>
         </is>
       </c>
@@ -1995,14 +1995,14 @@
       <c r="A117" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-07-31</t>
+            <t xml:space="preserve">2012-10-31</t>
           </r>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">42175.4</t>
+            <t xml:space="preserve">39559.7</t>
           </r>
         </is>
       </c>
@@ -2011,14 +2011,14 @@
       <c r="A118" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-06-30</t>
+            <t xml:space="preserve">2012-09-30</t>
           </r>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40208.5</t>
+            <t xml:space="preserve">39634.3</t>
           </r>
         </is>
       </c>
@@ -2027,14 +2027,14 @@
       <c r="A119" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-05-31</t>
+            <t xml:space="preserve">2012-08-31</t>
           </r>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">40659.2</t>
+            <t xml:space="preserve">40104.6</t>
           </r>
         </is>
       </c>
@@ -2043,14 +2043,14 @@
       <c r="A120" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-04-30</t>
+            <t xml:space="preserve">2012-07-31</t>
           </r>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38470.4</t>
+            <t xml:space="preserve">42175.4</t>
           </r>
         </is>
       </c>
@@ -2059,14 +2059,14 @@
       <c r="A121" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-03-31</t>
+            <t xml:space="preserve">2012-06-30</t>
           </r>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37055.9</t>
+            <t xml:space="preserve">40208.5</t>
           </r>
         </is>
       </c>
@@ -2075,14 +2075,14 @@
       <c r="A122" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-02-29</t>
+            <t xml:space="preserve">2012-05-31</t>
           </r>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36930.1</t>
+            <t xml:space="preserve">40659.2</t>
           </r>
         </is>
       </c>
@@ -2091,14 +2091,14 @@
       <c r="A123" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2012-01-31</t>
+            <t xml:space="preserve">2012-04-30</t>
           </r>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37811.5</t>
+            <t xml:space="preserve">38470.4</t>
           </r>
         </is>
       </c>
@@ -2107,14 +2107,14 @@
       <c r="A124" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-12-31</t>
+            <t xml:space="preserve">2012-03-31</t>
           </r>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">38014.4</t>
+            <t xml:space="preserve">37055.9</t>
           </r>
         </is>
       </c>
@@ -2123,14 +2123,14 @@
       <c r="A125" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-11-30</t>
+            <t xml:space="preserve">2012-02-29</t>
           </r>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36262.3</t>
+            <t xml:space="preserve">36930.1</t>
           </r>
         </is>
       </c>
@@ -2139,14 +2139,14 @@
       <c r="A126" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-10-31</t>
+            <t xml:space="preserve">2012-01-31</t>
           </r>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35071.5</t>
+            <t xml:space="preserve">37811.5</t>
           </r>
         </is>
       </c>
@@ -2155,14 +2155,14 @@
       <c r="A127" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-09-30</t>
+            <t xml:space="preserve">2011-12-31</t>
           </r>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36416.7</t>
+            <t xml:space="preserve">38014.4</t>
           </r>
         </is>
       </c>
@@ -2171,14 +2171,14 @@
       <c r="A128" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-08-31</t>
+            <t xml:space="preserve">2011-11-30</t>
           </r>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">34123.4</t>
+            <t xml:space="preserve">36262.3</t>
           </r>
         </is>
       </c>
@@ -2187,14 +2187,14 @@
       <c r="A129" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-07-31</t>
+            <t xml:space="preserve">2011-10-31</t>
           </r>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">34338.6</t>
+            <t xml:space="preserve">35071.5</t>
           </r>
         </is>
       </c>
@@ -2203,14 +2203,14 @@
       <c r="A130" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-06-30</t>
+            <t xml:space="preserve">2011-09-30</t>
           </r>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">33274.2</t>
+            <t xml:space="preserve">36416.7</t>
           </r>
         </is>
       </c>
@@ -2219,14 +2219,14 @@
       <c r="A131" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-05-31</t>
+            <t xml:space="preserve">2011-08-31</t>
           </r>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">33672.4</t>
+            <t xml:space="preserve">34123.4</t>
           </r>
         </is>
       </c>
@@ -2235,14 +2235,14 @@
       <c r="A132" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-04-30</t>
+            <t xml:space="preserve">2011-07-31</t>
           </r>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">31905.3</t>
+            <t xml:space="preserve">34338.6</t>
           </r>
         </is>
       </c>
@@ -2251,14 +2251,14 @@
       <c r="A133" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-03-31</t>
+            <t xml:space="preserve">2011-06-30</t>
           </r>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35605.2</t>
+            <t xml:space="preserve">33274.2</t>
           </r>
         </is>
       </c>
@@ -2267,14 +2267,14 @@
       <c r="A134" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-02-28</t>
+            <t xml:space="preserve">2011-05-31</t>
           </r>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35323</t>
+            <t xml:space="preserve">33672.4</t>
           </r>
         </is>
       </c>
@@ -2283,14 +2283,14 @@
       <c r="A135" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2011-01-31</t>
+            <t xml:space="preserve">2011-04-30</t>
           </r>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36024.7</t>
+            <t xml:space="preserve">31905.3</t>
           </r>
         </is>
       </c>
@@ -2299,14 +2299,14 @@
       <c r="A136" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-12-31</t>
+            <t xml:space="preserve">2011-03-31</t>
           </r>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35743.8</t>
+            <t xml:space="preserve">35605.2</t>
           </r>
         </is>
       </c>
@@ -2315,14 +2315,14 @@
       <c r="A137" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-11-30</t>
+            <t xml:space="preserve">2011-02-28</t>
           </r>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36662.3</t>
+            <t xml:space="preserve">35323</t>
           </r>
         </is>
       </c>
@@ -2331,14 +2331,14 @@
       <c r="A138" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-10-31</t>
+            <t xml:space="preserve">2011-01-31</t>
           </r>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35084.2</t>
+            <t xml:space="preserve">36024.7</t>
           </r>
         </is>
       </c>
@@ -2347,14 +2347,14 @@
       <c r="A139" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-09-30</t>
+            <t xml:space="preserve">2010-12-31</t>
           </r>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">35150.9</t>
+            <t xml:space="preserve">35743.8</t>
           </r>
         </is>
       </c>
@@ -2363,14 +2363,14 @@
       <c r="A140" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-08-31</t>
+            <t xml:space="preserve">2010-11-30</t>
           </r>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36766.7</t>
+            <t xml:space="preserve">36662.3</t>
           </r>
         </is>
       </c>
@@ -2379,14 +2379,14 @@
       <c r="A141" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-07-31</t>
+            <t xml:space="preserve">2010-10-31</t>
           </r>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">36149.2</t>
+            <t xml:space="preserve">35084.2</t>
           </r>
         </is>
       </c>
@@ -2395,14 +2395,14 @@
       <c r="A142" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-06-30</t>
+            <t xml:space="preserve">2010-09-30</t>
           </r>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37669.9</t>
+            <t xml:space="preserve">35150.9</t>
           </r>
         </is>
       </c>
@@ -2411,14 +2411,14 @@
       <c r="A143" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-05-31</t>
+            <t xml:space="preserve">2010-08-31</t>
           </r>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">37135.1</t>
+            <t xml:space="preserve">36766.7</t>
           </r>
         </is>
       </c>
@@ -2427,14 +2427,14 @@
       <c r="A144" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-04-30</t>
+            <t xml:space="preserve">2010-07-31</t>
           </r>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">34318.4</t>
+            <t xml:space="preserve">36149.2</t>
           </r>
         </is>
       </c>
@@ -2443,14 +2443,14 @@
       <c r="A145" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-03-31</t>
+            <t xml:space="preserve">2010-06-30</t>
           </r>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">33512.5</t>
+            <t xml:space="preserve">37669.9</t>
           </r>
         </is>
       </c>
@@ -2459,14 +2459,14 @@
       <c r="A146" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-02-28</t>
+            <t xml:space="preserve">2010-05-31</t>
           </r>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">33656.6</t>
+            <t xml:space="preserve">37135.1</t>
           </r>
         </is>
       </c>
@@ -2475,14 +2475,14 @@
       <c r="A147" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2010-01-31</t>
+            <t xml:space="preserve">2010-04-30</t>
           </r>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">32918.6</t>
+            <t xml:space="preserve">34318.4</t>
           </r>
         </is>
       </c>
@@ -2491,14 +2491,14 @@
       <c r="A148" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-12-31</t>
+            <t xml:space="preserve">2010-03-31</t>
           </r>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">31771.8</t>
+            <t xml:space="preserve">33512.5</t>
           </r>
         </is>
       </c>
@@ -2507,14 +2507,14 @@
       <c r="A149" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-11-30</t>
+            <t xml:space="preserve">2010-02-28</t>
           </r>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">31561.4</t>
+            <t xml:space="preserve">33656.6</t>
           </r>
         </is>
       </c>
@@ -2523,14 +2523,14 @@
       <c r="A150" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-10-31</t>
+            <t xml:space="preserve">2010-01-31</t>
           </r>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">31992.3</t>
+            <t xml:space="preserve">32918.6</t>
           </r>
         </is>
       </c>
@@ -2539,14 +2539,14 @@
       <c r="A151" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-09-30</t>
+            <t xml:space="preserve">2009-12-31</t>
           </r>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">32385.7</t>
+            <t xml:space="preserve">31771.8</t>
           </r>
         </is>
       </c>
@@ -2555,14 +2555,14 @@
       <c r="A152" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-08-31</t>
+            <t xml:space="preserve">2009-11-30</t>
           </r>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">32079.7</t>
+            <t xml:space="preserve">31561.4</t>
           </r>
         </is>
       </c>
@@ -2571,14 +2571,14 @@
       <c r="A153" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-07-31</t>
+            <t xml:space="preserve">2009-10-31</t>
           </r>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26229.2</t>
+            <t xml:space="preserve">31992.3</t>
           </r>
         </is>
       </c>
@@ -2587,14 +2587,14 @@
       <c r="A154" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-06-30</t>
+            <t xml:space="preserve">2009-09-30</t>
           </r>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26597.8</t>
+            <t xml:space="preserve">32385.7</t>
           </r>
         </is>
       </c>
@@ -2603,14 +2603,14 @@
       <c r="A155" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-05-31</t>
+            <t xml:space="preserve">2009-08-31</t>
           </r>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26134.3</t>
+            <t xml:space="preserve">32079.7</t>
           </r>
         </is>
       </c>
@@ -2619,14 +2619,14 @@
       <c r="A156" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-04-30</t>
+            <t xml:space="preserve">2009-07-31</t>
           </r>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26920</t>
+            <t xml:space="preserve">26229.2</t>
           </r>
         </is>
       </c>
@@ -2635,14 +2635,14 @@
       <c r="A157" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-03-31</t>
+            <t xml:space="preserve">2009-06-30</t>
           </r>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26865.4</t>
+            <t xml:space="preserve">26597.8</t>
           </r>
         </is>
       </c>
@@ -2651,14 +2651,14 @@
       <c r="A158" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-02-28</t>
+            <t xml:space="preserve">2009-05-31</t>
           </r>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28287.3</t>
+            <t xml:space="preserve">26134.3</t>
           </r>
         </is>
       </c>
@@ -2667,14 +2667,14 @@
       <c r="A159" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2009-01-31</t>
+            <t xml:space="preserve">2009-04-30</t>
           </r>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28477.5</t>
+            <t xml:space="preserve">26920</t>
           </r>
         </is>
       </c>
@@ -2683,14 +2683,14 @@
       <c r="A160" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-12-31</t>
+            <t xml:space="preserve">2009-03-31</t>
           </r>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26649.6</t>
+            <t xml:space="preserve">26865.4</t>
           </r>
         </is>
       </c>
@@ -2699,14 +2699,14 @@
       <c r="A161" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-11-30</t>
+            <t xml:space="preserve">2009-02-28</t>
           </r>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28321</t>
+            <t xml:space="preserve">28287.3</t>
           </r>
         </is>
       </c>
@@ -2715,14 +2715,14 @@
       <c r="A162" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-10-31</t>
+            <t xml:space="preserve">2009-01-31</t>
           </r>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27726.3</t>
+            <t xml:space="preserve">28477.5</t>
           </r>
         </is>
       </c>
@@ -2731,14 +2731,14 @@
       <c r="A163" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-09-30</t>
+            <t xml:space="preserve">2008-12-31</t>
           </r>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24115.1</t>
+            <t xml:space="preserve">26649.6</t>
           </r>
         </is>
       </c>
@@ -2747,14 +2747,14 @@
       <c r="A164" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-08-31</t>
+            <t xml:space="preserve">2008-11-30</t>
           </r>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21890.9</t>
+            <t xml:space="preserve">28321</t>
           </r>
         </is>
       </c>
@@ -2763,14 +2763,14 @@
       <c r="A165" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-07-31</t>
+            <t xml:space="preserve">2008-10-31</t>
           </r>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20743.4</t>
+            <t xml:space="preserve">27726.3</t>
           </r>
         </is>
       </c>
@@ -2779,14 +2779,14 @@
       <c r="A166" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-06-30</t>
+            <t xml:space="preserve">2008-09-30</t>
           </r>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20685</t>
+            <t xml:space="preserve">24115.1</t>
           </r>
         </is>
       </c>
@@ -2795,14 +2795,14 @@
       <c r="A167" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-05-31</t>
+            <t xml:space="preserve">2008-08-31</t>
           </r>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20861</t>
+            <t xml:space="preserve">21890.9</t>
           </r>
         </is>
       </c>
@@ -2811,14 +2811,14 @@
       <c r="A168" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-04-30</t>
+            <t xml:space="preserve">2008-07-31</t>
           </r>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20704.4</t>
+            <t xml:space="preserve">20743.4</t>
           </r>
         </is>
       </c>
@@ -2827,14 +2827,14 @@
       <c r="A169" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-03-31</t>
+            <t xml:space="preserve">2008-06-30</t>
           </r>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18637.3</t>
+            <t xml:space="preserve">20685</t>
           </r>
         </is>
       </c>
@@ -2843,14 +2843,14 @@
       <c r="A170" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-02-29</t>
+            <t xml:space="preserve">2008-05-31</t>
           </r>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19953.1</t>
+            <t xml:space="preserve">20861</t>
           </r>
         </is>
       </c>
@@ -2859,14 +2859,14 @@
       <c r="A171" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2008-01-31</t>
+            <t xml:space="preserve">2008-04-30</t>
           </r>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20634.2</t>
+            <t xml:space="preserve">20704.4</t>
           </r>
         </is>
       </c>
@@ -2875,14 +2875,14 @@
       <c r="A172" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-12-31</t>
+            <t xml:space="preserve">2008-03-31</t>
           </r>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19281.4</t>
+            <t xml:space="preserve">18637.3</t>
           </r>
         </is>
       </c>
@@ -2891,14 +2891,14 @@
       <c r="A173" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-11-30</t>
+            <t xml:space="preserve">2008-02-29</t>
           </r>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21440.2</t>
+            <t xml:space="preserve">19953.1</t>
           </r>
         </is>
       </c>
@@ -2907,14 +2907,14 @@
       <c r="A174" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-10-31</t>
+            <t xml:space="preserve">2008-01-31</t>
           </r>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20633.3</t>
+            <t xml:space="preserve">20634.2</t>
           </r>
         </is>
       </c>
@@ -2923,14 +2923,14 @@
       <c r="A175" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-09-30</t>
+            <t xml:space="preserve">2007-12-31</t>
           </r>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20927.9</t>
+            <t xml:space="preserve">19281.4</t>
           </r>
         </is>
       </c>
@@ -2939,14 +2939,14 @@
       <c r="A176" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-08-31</t>
+            <t xml:space="preserve">2007-11-30</t>
           </r>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20984.8</t>
+            <t xml:space="preserve">21440.2</t>
           </r>
         </is>
       </c>
@@ -2955,14 +2955,14 @@
       <c r="A177" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-07-31</t>
+            <t xml:space="preserve">2007-10-31</t>
           </r>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21465.1</t>
+            <t xml:space="preserve">20633.3</t>
           </r>
         </is>
       </c>
@@ -2971,14 +2971,14 @@
       <c r="A178" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-06-30</t>
+            <t xml:space="preserve">2007-09-30</t>
           </r>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21851</t>
+            <t xml:space="preserve">20927.9</t>
           </r>
         </is>
       </c>
@@ -2987,14 +2987,14 @@
       <c r="A179" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-05-31</t>
+            <t xml:space="preserve">2007-08-31</t>
           </r>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20600.9</t>
+            <t xml:space="preserve">20984.8</t>
           </r>
         </is>
       </c>
@@ -3003,14 +3003,14 @@
       <c r="A180" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-04-30</t>
+            <t xml:space="preserve">2007-07-31</t>
           </r>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20174</t>
+            <t xml:space="preserve">21465.1</t>
           </r>
         </is>
       </c>
@@ -3019,14 +3019,14 @@
       <c r="A181" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-03-31</t>
+            <t xml:space="preserve">2007-06-30</t>
           </r>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20363.9</t>
+            <t xml:space="preserve">21851</t>
           </r>
         </is>
       </c>
@@ -3035,14 +3035,14 @@
       <c r="A182" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-02-28</t>
+            <t xml:space="preserve">2007-05-31</t>
           </r>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20602.5</t>
+            <t xml:space="preserve">20600.9</t>
           </r>
         </is>
       </c>
@@ -3051,14 +3051,14 @@
       <c r="A183" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2007-01-31</t>
+            <t xml:space="preserve">2007-04-30</t>
           </r>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20614.9</t>
+            <t xml:space="preserve">20174</t>
           </r>
         </is>
       </c>
@@ -3067,14 +3067,14 @@
       <c r="A184" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-12-31</t>
+            <t xml:space="preserve">2007-03-31</t>
           </r>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19485.1</t>
+            <t xml:space="preserve">20363.9</t>
           </r>
         </is>
       </c>
@@ -3083,14 +3083,14 @@
       <c r="A185" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-11-30</t>
+            <t xml:space="preserve">2007-02-28</t>
           </r>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20418.6</t>
+            <t xml:space="preserve">20602.5</t>
           </r>
         </is>
       </c>
@@ -3099,14 +3099,14 @@
       <c r="A186" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-10-31</t>
+            <t xml:space="preserve">2007-01-31</t>
           </r>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20199</t>
+            <t xml:space="preserve">20614.9</t>
           </r>
         </is>
       </c>
@@ -3115,14 +3115,14 @@
       <c r="A187" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-09-30</t>
+            <t xml:space="preserve">2006-12-31</t>
           </r>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20328.6</t>
+            <t xml:space="preserve">19485.1</t>
           </r>
         </is>
       </c>
@@ -3131,14 +3131,14 @@
       <c r="A188" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-08-31</t>
+            <t xml:space="preserve">2006-11-30</t>
           </r>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19993.5</t>
+            <t xml:space="preserve">20418.6</t>
           </r>
         </is>
       </c>
@@ -3147,14 +3147,14 @@
       <c r="A189" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-07-31</t>
+            <t xml:space="preserve">2006-10-31</t>
           </r>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20015.8</t>
+            <t xml:space="preserve">20199</t>
           </r>
         </is>
       </c>
@@ -3163,14 +3163,14 @@
       <c r="A190" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-06-30</t>
+            <t xml:space="preserve">2006-09-30</t>
           </r>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20332.5</t>
+            <t xml:space="preserve">20328.6</t>
           </r>
         </is>
       </c>
@@ -3179,14 +3179,14 @@
       <c r="A191" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-05-31</t>
+            <t xml:space="preserve">2006-08-31</t>
           </r>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19106.9</t>
+            <t xml:space="preserve">19993.5</t>
           </r>
         </is>
       </c>
@@ -3195,14 +3195,14 @@
       <c r="A192" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-04-30</t>
+            <t xml:space="preserve">2006-07-31</t>
           </r>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20220</t>
+            <t xml:space="preserve">20015.8</t>
           </r>
         </is>
       </c>
@@ -3211,14 +3211,14 @@
       <c r="A193" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-03-31</t>
+            <t xml:space="preserve">2006-06-30</t>
           </r>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20937</t>
+            <t xml:space="preserve">20332.5</t>
           </r>
         </is>
       </c>
@@ -3227,14 +3227,14 @@
       <c r="A194" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-02-28</t>
+            <t xml:space="preserve">2006-05-31</t>
           </r>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21966.9</t>
+            <t xml:space="preserve">19106.9</t>
           </r>
         </is>
       </c>
@@ -3243,14 +3243,14 @@
       <c r="A195" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2006-01-31</t>
+            <t xml:space="preserve">2006-04-30</t>
           </r>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21562.6</t>
+            <t xml:space="preserve">20220</t>
           </r>
         </is>
       </c>
@@ -3259,14 +3259,14 @@
       <c r="A196" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-12-31</t>
+            <t xml:space="preserve">2006-03-31</t>
           </r>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21628.9</t>
+            <t xml:space="preserve">20937</t>
           </r>
         </is>
       </c>
@@ -3275,14 +3275,14 @@
       <c r="A197" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-11-30</t>
+            <t xml:space="preserve">2006-02-28</t>
           </r>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">22619.4</t>
+            <t xml:space="preserve">21966.9</t>
           </r>
         </is>
       </c>
@@ -3291,14 +3291,14 @@
       <c r="A198" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-10-31</t>
+            <t xml:space="preserve">2006-01-31</t>
           </r>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21076</t>
+            <t xml:space="preserve">21562.6</t>
           </r>
         </is>
       </c>
@@ -3307,14 +3307,14 @@
       <c r="A199" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-09-30</t>
+            <t xml:space="preserve">2005-12-31</t>
           </r>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21035.7</t>
+            <t xml:space="preserve">21628.9</t>
           </r>
         </is>
       </c>
@@ -3323,14 +3323,14 @@
       <c r="A200" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-08-31</t>
+            <t xml:space="preserve">2005-11-30</t>
           </r>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21572.7</t>
+            <t xml:space="preserve">22619.4</t>
           </r>
         </is>
       </c>
@@ -3339,14 +3339,14 @@
       <c r="A201" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-07-31</t>
+            <t xml:space="preserve">2005-10-31</t>
           </r>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21371.7</t>
+            <t xml:space="preserve">21076</t>
           </r>
         </is>
       </c>
@@ -3355,14 +3355,14 @@
       <c r="A202" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-06-30</t>
+            <t xml:space="preserve">2005-09-30</t>
           </r>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21560.5</t>
+            <t xml:space="preserve">21035.7</t>
           </r>
         </is>
       </c>
@@ -3371,14 +3371,14 @@
       <c r="A203" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-05-31</t>
+            <t xml:space="preserve">2005-08-31</t>
           </r>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21569.6</t>
+            <t xml:space="preserve">21572.7</t>
           </r>
         </is>
       </c>
@@ -3387,14 +3387,14 @@
       <c r="A204" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-04-30</t>
+            <t xml:space="preserve">2005-07-31</t>
           </r>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21210.2</t>
+            <t xml:space="preserve">21371.7</t>
           </r>
         </is>
       </c>
@@ -3403,14 +3403,14 @@
       <c r="A205" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-03-31</t>
+            <t xml:space="preserve">2005-06-30</t>
           </r>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21178.2</t>
+            <t xml:space="preserve">21560.5</t>
           </r>
         </is>
       </c>
@@ -3419,14 +3419,14 @@
       <c r="A206" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-02-28</t>
+            <t xml:space="preserve">2005-05-31</t>
           </r>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20712.7</t>
+            <t xml:space="preserve">21569.6</t>
           </r>
         </is>
       </c>
@@ -3435,14 +3435,14 @@
       <c r="A207" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2005-01-31</t>
+            <t xml:space="preserve">2005-04-30</t>
           </r>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21382</t>
+            <t xml:space="preserve">21210.2</t>
           </r>
         </is>
       </c>
@@ -3451,14 +3451,14 @@
       <c r="A208" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-12-31</t>
+            <t xml:space="preserve">2005-03-31</t>
           </r>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20451.1</t>
+            <t xml:space="preserve">21178.2</t>
           </r>
         </is>
       </c>
@@ -3467,14 +3467,14 @@
       <c r="A209" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-11-30</t>
+            <t xml:space="preserve">2005-02-28</t>
           </r>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21317.8</t>
+            <t xml:space="preserve">20712.7</t>
           </r>
         </is>
       </c>
@@ -3483,14 +3483,14 @@
       <c r="A210" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-10-31</t>
+            <t xml:space="preserve">2005-01-31</t>
           </r>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21778.1</t>
+            <t xml:space="preserve">21382</t>
           </r>
         </is>
       </c>
@@ -3499,14 +3499,14 @@
       <c r="A211" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-09-30</t>
+            <t xml:space="preserve">2004-12-31</t>
           </r>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">22336.4</t>
+            <t xml:space="preserve">20451.1</t>
           </r>
         </is>
       </c>
@@ -3515,14 +3515,14 @@
       <c r="A212" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-08-31</t>
+            <t xml:space="preserve">2004-11-30</t>
           </r>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">22938.6</t>
+            <t xml:space="preserve">21317.8</t>
           </r>
         </is>
       </c>
@@ -3531,14 +3531,14 @@
       <c r="A213" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-07-31</t>
+            <t xml:space="preserve">2004-10-31</t>
           </r>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24259.7</t>
+            <t xml:space="preserve">21778.1</t>
           </r>
         </is>
       </c>
@@ -3547,14 +3547,14 @@
       <c r="A214" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-06-30</t>
+            <t xml:space="preserve">2004-09-30</t>
           </r>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26089.5</t>
+            <t xml:space="preserve">22336.4</t>
           </r>
         </is>
       </c>
@@ -3563,14 +3563,14 @@
       <c r="A215" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-05-31</t>
+            <t xml:space="preserve">2004-08-31</t>
           </r>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25294.9</t>
+            <t xml:space="preserve">22938.6</t>
           </r>
         </is>
       </c>
@@ -3579,14 +3579,14 @@
       <c r="A216" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-04-30</t>
+            <t xml:space="preserve">2004-07-31</t>
           </r>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25269.5</t>
+            <t xml:space="preserve">24259.7</t>
           </r>
         </is>
       </c>
@@ -3595,14 +3595,14 @@
       <c r="A217" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-03-31</t>
+            <t xml:space="preserve">2004-06-30</t>
           </r>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24182.9</t>
+            <t xml:space="preserve">26089.5</t>
           </r>
         </is>
       </c>
@@ -3611,14 +3611,14 @@
       <c r="A218" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-02-29</t>
+            <t xml:space="preserve">2004-05-31</t>
           </r>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24668.5</t>
+            <t xml:space="preserve">25294.9</t>
           </r>
         </is>
       </c>
@@ -3627,14 +3627,14 @@
       <c r="A219" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2004-01-31</t>
+            <t xml:space="preserve">2004-04-30</t>
           </r>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24753.1</t>
+            <t xml:space="preserve">25269.5</t>
           </r>
         </is>
       </c>
@@ -3643,14 +3643,14 @@
       <c r="A220" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-12-31</t>
+            <t xml:space="preserve">2004-03-31</t>
           </r>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24052.6</t>
+            <t xml:space="preserve">24182.9</t>
           </r>
         </is>
       </c>
@@ -3659,14 +3659,14 @@
       <c r="A221" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-11-30</t>
+            <t xml:space="preserve">2004-02-29</t>
           </r>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28263.2</t>
+            <t xml:space="preserve">24668.5</t>
           </r>
         </is>
       </c>
@@ -3675,14 +3675,14 @@
       <c r="A222" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-10-31</t>
+            <t xml:space="preserve">2004-01-31</t>
           </r>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29279.9</t>
+            <t xml:space="preserve">24753.1</t>
           </r>
         </is>
       </c>
@@ -3691,14 +3691,14 @@
       <c r="A223" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-09-30</t>
+            <t xml:space="preserve">2003-12-31</t>
           </r>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">30072.6</t>
+            <t xml:space="preserve">24052.6</t>
           </r>
         </is>
       </c>
@@ -3707,14 +3707,14 @@
       <c r="A224" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-08-31</t>
+            <t xml:space="preserve">2003-11-30</t>
           </r>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">30954.9</t>
+            <t xml:space="preserve">28263.2</t>
           </r>
         </is>
       </c>
@@ -3723,14 +3723,14 @@
       <c r="A225" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-07-31</t>
+            <t xml:space="preserve">2003-10-31</t>
           </r>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29976.1</t>
+            <t xml:space="preserve">29279.9</t>
           </r>
         </is>
       </c>
@@ -3739,14 +3739,14 @@
       <c r="A226" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-06-30</t>
+            <t xml:space="preserve">2003-09-30</t>
           </r>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29055.8</t>
+            <t xml:space="preserve">30072.6</t>
           </r>
         </is>
       </c>
@@ -3755,14 +3755,14 @@
       <c r="A227" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-05-31</t>
+            <t xml:space="preserve">2003-08-31</t>
           </r>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27545</t>
+            <t xml:space="preserve">30954.9</t>
           </r>
         </is>
       </c>
@@ -3771,14 +3771,14 @@
       <c r="A228" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-04-30</t>
+            <t xml:space="preserve">2003-07-31</t>
           </r>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29530.1</t>
+            <t xml:space="preserve">29976.1</t>
           </r>
         </is>
       </c>
@@ -3787,14 +3787,14 @@
       <c r="A229" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-03-31</t>
+            <t xml:space="preserve">2003-06-30</t>
           </r>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29886.6</t>
+            <t xml:space="preserve">29055.8</t>
           </r>
         </is>
       </c>
@@ -3803,14 +3803,14 @@
       <c r="A230" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-02-28</t>
+            <t xml:space="preserve">2003-05-31</t>
           </r>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29909.6</t>
+            <t xml:space="preserve">27545</t>
           </r>
         </is>
       </c>
@@ -3819,14 +3819,14 @@
       <c r="A231" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2003-01-31</t>
+            <t xml:space="preserve">2003-04-30</t>
           </r>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29465.7</t>
+            <t xml:space="preserve">29530.1</t>
           </r>
         </is>
       </c>
@@ -3835,14 +3835,14 @@
       <c r="A232" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-12-31</t>
+            <t xml:space="preserve">2003-03-31</t>
           </r>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27302.9</t>
+            <t xml:space="preserve">29886.6</t>
           </r>
         </is>
       </c>
@@ -3851,14 +3851,14 @@
       <c r="A233" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-11-30</t>
+            <t xml:space="preserve">2003-02-28</t>
           </r>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27189.6</t>
+            <t xml:space="preserve">29909.6</t>
           </r>
         </is>
       </c>
@@ -3867,14 +3867,14 @@
       <c r="A234" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-10-31</t>
+            <t xml:space="preserve">2003-01-31</t>
           </r>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27742.5</t>
+            <t xml:space="preserve">29465.7</t>
           </r>
         </is>
       </c>
@@ -3883,14 +3883,14 @@
       <c r="A235" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-09-30</t>
+            <t xml:space="preserve">2002-12-31</t>
           </r>
         </is>
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27138.3</t>
+            <t xml:space="preserve">27302.9</t>
           </r>
         </is>
       </c>
@@ -3899,14 +3899,14 @@
       <c r="A236" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-08-31</t>
+            <t xml:space="preserve">2002-11-30</t>
           </r>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24850</t>
+            <t xml:space="preserve">27189.6</t>
           </r>
         </is>
       </c>
@@ -3915,14 +3915,14 @@
       <c r="A237" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-07-31</t>
+            <t xml:space="preserve">2002-10-31</t>
           </r>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24829.2</t>
+            <t xml:space="preserve">27742.5</t>
           </r>
         </is>
       </c>
@@ -3931,14 +3931,14 @@
       <c r="A238" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-06-30</t>
+            <t xml:space="preserve">2002-09-30</t>
           </r>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24478.2</t>
+            <t xml:space="preserve">27138.3</t>
           </r>
         </is>
       </c>
@@ -3947,14 +3947,14 @@
       <c r="A239" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-05-31</t>
+            <t xml:space="preserve">2002-08-31</t>
           </r>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25196.6</t>
+            <t xml:space="preserve">24850</t>
           </r>
         </is>
       </c>
@@ -3963,14 +3963,14 @@
       <c r="A240" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-04-30</t>
+            <t xml:space="preserve">2002-07-31</t>
           </r>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26653.4</t>
+            <t xml:space="preserve">24829.2</t>
           </r>
         </is>
       </c>
@@ -3979,14 +3979,14 @@
       <c r="A241" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-03-31</t>
+            <t xml:space="preserve">2002-06-30</t>
           </r>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27248</t>
+            <t xml:space="preserve">24478.2</t>
           </r>
         </is>
       </c>
@@ -3995,14 +3995,14 @@
       <c r="A242" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-02-28</t>
+            <t xml:space="preserve">2002-05-31</t>
           </r>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27554.5</t>
+            <t xml:space="preserve">25196.6</t>
           </r>
         </is>
       </c>
@@ -4011,14 +4011,14 @@
       <c r="A243" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2002-01-31</t>
+            <t xml:space="preserve">2002-04-30</t>
           </r>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27717.1</t>
+            <t xml:space="preserve">26653.4</t>
           </r>
         </is>
       </c>
@@ -4027,14 +4027,14 @@
       <c r="A244" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-12-31</t>
+            <t xml:space="preserve">2002-03-31</t>
           </r>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27704.1</t>
+            <t xml:space="preserve">27248</t>
           </r>
         </is>
       </c>
@@ -4043,14 +4043,14 @@
       <c r="A245" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-11-30</t>
+            <t xml:space="preserve">2002-02-28</t>
           </r>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28737.4</t>
+            <t xml:space="preserve">27554.5</t>
           </r>
         </is>
       </c>
@@ -4059,14 +4059,14 @@
       <c r="A246" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-10-31</t>
+            <t xml:space="preserve">2002-01-31</t>
           </r>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28335.4</t>
+            <t xml:space="preserve">27717.1</t>
           </r>
         </is>
       </c>
@@ -4075,14 +4075,14 @@
       <c r="A247" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-09-30</t>
+            <t xml:space="preserve">2001-12-31</t>
           </r>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27627.6</t>
+            <t xml:space="preserve">27704.1</t>
           </r>
         </is>
       </c>
@@ -4091,14 +4091,14 @@
       <c r="A248" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-08-31</t>
+            <t xml:space="preserve">2001-11-30</t>
           </r>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27020.8</t>
+            <t xml:space="preserve">28737.4</t>
           </r>
         </is>
       </c>
@@ -4107,14 +4107,14 @@
       <c r="A249" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-07-31</t>
+            <t xml:space="preserve">2001-10-31</t>
           </r>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28618.7</t>
+            <t xml:space="preserve">28335.4</t>
           </r>
         </is>
       </c>
@@ -4123,14 +4123,14 @@
       <c r="A250" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-06-30</t>
+            <t xml:space="preserve">2001-09-30</t>
           </r>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">30778.5</t>
+            <t xml:space="preserve">27627.6</t>
           </r>
         </is>
       </c>
@@ -4139,14 +4139,14 @@
       <c r="A251" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-05-31</t>
+            <t xml:space="preserve">2001-08-31</t>
           </r>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">31227.9</t>
+            <t xml:space="preserve">27020.8</t>
           </r>
         </is>
       </c>
@@ -4155,14 +4155,14 @@
       <c r="A252" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-04-30</t>
+            <t xml:space="preserve">2001-07-31</t>
           </r>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29408.8</t>
+            <t xml:space="preserve">28618.7</t>
           </r>
         </is>
       </c>
@@ -4171,14 +4171,14 @@
       <c r="A253" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-03-31</t>
+            <t xml:space="preserve">2001-06-30</t>
           </r>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29217.5</t>
+            <t xml:space="preserve">30778.5</t>
           </r>
         </is>
       </c>
@@ -4187,14 +4187,14 @@
       <c r="A254" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-02-28</t>
+            <t xml:space="preserve">2001-05-31</t>
           </r>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28633.9</t>
+            <t xml:space="preserve">31227.9</t>
           </r>
         </is>
       </c>
@@ -4203,14 +4203,14 @@
       <c r="A255" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2001-01-31</t>
+            <t xml:space="preserve">2001-04-30</t>
           </r>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">30400.4</t>
+            <t xml:space="preserve">29408.8</t>
           </r>
         </is>
       </c>
@@ -4219,14 +4219,14 @@
       <c r="A256" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-12-31</t>
+            <t xml:space="preserve">2001-03-31</t>
           </r>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27268.3</t>
+            <t xml:space="preserve">29217.5</t>
           </r>
         </is>
       </c>
@@ -4235,14 +4235,14 @@
       <c r="A257" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-11-30</t>
+            <t xml:space="preserve">2001-02-28</t>
           </r>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29135.8</t>
+            <t xml:space="preserve">28633.9</t>
           </r>
         </is>
       </c>
@@ -4251,14 +4251,14 @@
       <c r="A258" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-10-31</t>
+            <t xml:space="preserve">2001-01-31</t>
           </r>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">31284.1</t>
+            <t xml:space="preserve">30400.4</t>
           </r>
         </is>
       </c>
@@ -4267,14 +4267,14 @@
       <c r="A259" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-09-30</t>
+            <t xml:space="preserve">2000-12-31</t>
           </r>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29838.3</t>
+            <t xml:space="preserve">27268.3</t>
           </r>
         </is>
       </c>
@@ -4283,14 +4283,14 @@
       <c r="A260" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-08-31</t>
+            <t xml:space="preserve">2000-11-30</t>
           </r>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28389.4</t>
+            <t xml:space="preserve">29135.8</t>
           </r>
         </is>
       </c>
@@ -4299,14 +4299,14 @@
       <c r="A261" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-07-31</t>
+            <t xml:space="preserve">2000-10-31</t>
           </r>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27239.3</t>
+            <t xml:space="preserve">31284.1</t>
           </r>
         </is>
       </c>
@@ -4315,14 +4315,14 @@
       <c r="A262" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-06-30</t>
+            <t xml:space="preserve">2000-09-30</t>
           </r>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25816.3</t>
+            <t xml:space="preserve">29838.3</t>
           </r>
         </is>
       </c>
@@ -4331,14 +4331,14 @@
       <c r="A263" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-05-31</t>
+            <t xml:space="preserve">2000-08-31</t>
           </r>
         </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26066.9</t>
+            <t xml:space="preserve">28389.4</t>
           </r>
         </is>
       </c>
@@ -4347,14 +4347,14 @@
       <c r="A264" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-04-30</t>
+            <t xml:space="preserve">2000-07-31</t>
           </r>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26142.2</t>
+            <t xml:space="preserve">27239.3</t>
           </r>
         </is>
       </c>
@@ -4363,14 +4363,14 @@
       <c r="A265" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-03-31</t>
+            <t xml:space="preserve">2000-06-30</t>
           </r>
         </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26642.2</t>
+            <t xml:space="preserve">25816.3</t>
           </r>
         </is>
       </c>
@@ -4379,14 +4379,14 @@
       <c r="A266" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-02-29</t>
+            <t xml:space="preserve">2000-05-31</t>
           </r>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">23483.5</t>
+            <t xml:space="preserve">26066.9</t>
           </r>
         </is>
       </c>
@@ -4395,14 +4395,14 @@
       <c r="A267" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2000-01-31</t>
+            <t xml:space="preserve">2000-04-30</t>
           </r>
         </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">22313.2</t>
+            <t xml:space="preserve">26142.2</t>
           </r>
         </is>
       </c>
@@ -4411,14 +4411,14 @@
       <c r="A268" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-12-31</t>
+            <t xml:space="preserve">2000-03-31</t>
           </r>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">22317.5</t>
+            <t xml:space="preserve">26642.2</t>
           </r>
         </is>
       </c>
@@ -4427,14 +4427,14 @@
       <c r="A269" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-11-30</t>
+            <t xml:space="preserve">2000-02-29</t>
           </r>
         </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20860.1</t>
+            <t xml:space="preserve">23483.5</t>
           </r>
         </is>
       </c>
@@ -4443,14 +4443,14 @@
       <c r="A270" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-10-31</t>
+            <t xml:space="preserve">2000-01-31</t>
           </r>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21390.3</t>
+            <t xml:space="preserve">22313.2</t>
           </r>
         </is>
       </c>
@@ -4459,14 +4459,14 @@
       <c r="A271" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-09-30</t>
+            <t xml:space="preserve">1999-12-31</t>
           </r>
         </is>
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20823.5</t>
+            <t xml:space="preserve">22317.5</t>
           </r>
         </is>
       </c>
@@ -4475,14 +4475,14 @@
       <c r="A272" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-08-31</t>
+            <t xml:space="preserve">1999-11-30</t>
           </r>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21418.1</t>
+            <t xml:space="preserve">20860.1</t>
           </r>
         </is>
       </c>
@@ -4491,14 +4491,14 @@
       <c r="A273" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-07-31</t>
+            <t xml:space="preserve">1999-10-31</t>
           </r>
         </is>
       </c>
       <c r="B273" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20935.8</t>
+            <t xml:space="preserve">21390.3</t>
           </r>
         </is>
       </c>
@@ -4507,14 +4507,14 @@
       <c r="A274" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-06-30</t>
+            <t xml:space="preserve">1999-09-30</t>
           </r>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20593.2</t>
+            <t xml:space="preserve">20823.5</t>
           </r>
         </is>
       </c>
@@ -4523,14 +4523,14 @@
       <c r="A275" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-05-31</t>
+            <t xml:space="preserve">1999-08-31</t>
           </r>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20160.8</t>
+            <t xml:space="preserve">21418.1</t>
           </r>
         </is>
       </c>
@@ -4539,14 +4539,14 @@
       <c r="A276" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-04-30</t>
+            <t xml:space="preserve">1999-07-31</t>
           </r>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20326.3</t>
+            <t xml:space="preserve">20935.8</t>
           </r>
         </is>
       </c>
@@ -4555,14 +4555,14 @@
       <c r="A277" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-03-31</t>
+            <t xml:space="preserve">1999-06-30</t>
           </r>
         </is>
       </c>
       <c r="B277" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19912.4</t>
+            <t xml:space="preserve">20593.2</t>
           </r>
         </is>
       </c>
@@ -4571,14 +4571,14 @@
       <c r="A278" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-02-28</t>
+            <t xml:space="preserve">1999-05-31</t>
           </r>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20085.1</t>
+            <t xml:space="preserve">20160.8</t>
           </r>
         </is>
       </c>
@@ -4587,14 +4587,14 @@
       <c r="A279" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1999-01-31</t>
+            <t xml:space="preserve">1999-04-30</t>
           </r>
         </is>
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20682.6</t>
+            <t xml:space="preserve">20326.3</t>
           </r>
         </is>
       </c>
@@ -4603,14 +4603,14 @@
       <c r="A280" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-12-31</t>
+            <t xml:space="preserve">1999-03-31</t>
           </r>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25179.4</t>
+            <t xml:space="preserve">19912.4</t>
           </r>
         </is>
       </c>
@@ -4619,14 +4619,14 @@
       <c r="A281" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-11-30</t>
+            <t xml:space="preserve">1999-02-28</t>
           </r>
         </is>
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21581.7</t>
+            <t xml:space="preserve">20085.1</t>
           </r>
         </is>
       </c>
@@ -4635,14 +4635,14 @@
       <c r="A282" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-10-31</t>
+            <t xml:space="preserve">1999-01-31</t>
           </r>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20470.7</t>
+            <t xml:space="preserve">20682.6</t>
           </r>
         </is>
       </c>
@@ -4651,14 +4651,14 @@
       <c r="A283" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-09-30</t>
+            <t xml:space="preserve">1998-12-31</t>
           </r>
         </is>
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19222.9</t>
+            <t xml:space="preserve">25179.4</t>
           </r>
         </is>
       </c>
@@ -4667,14 +4667,14 @@
       <c r="A284" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-08-31</t>
+            <t xml:space="preserve">1998-11-30</t>
           </r>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">22563.1</t>
+            <t xml:space="preserve">21581.7</t>
           </r>
         </is>
       </c>
@@ -4683,14 +4683,14 @@
       <c r="A285" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-07-31</t>
+            <t xml:space="preserve">1998-10-31</t>
           </r>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">23240.5</t>
+            <t xml:space="preserve">20470.7</t>
           </r>
         </is>
       </c>
@@ -4699,14 +4699,14 @@
       <c r="A286" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-06-30</t>
+            <t xml:space="preserve">1998-09-30</t>
           </r>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">23574.7</t>
+            <t xml:space="preserve">19222.9</t>
           </r>
         </is>
       </c>
@@ -4715,14 +4715,14 @@
       <c r="A287" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-05-31</t>
+            <t xml:space="preserve">1998-08-31</t>
           </r>
         </is>
       </c>
       <c r="B287" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">23275.2</t>
+            <t xml:space="preserve">22563.1</t>
           </r>
         </is>
       </c>
@@ -4731,14 +4731,14 @@
       <c r="A288" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-04-30</t>
+            <t xml:space="preserve">1998-07-31</t>
           </r>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20484.1</t>
+            <t xml:space="preserve">23240.5</t>
           </r>
         </is>
       </c>
@@ -4747,14 +4747,14 @@
       <c r="A289" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-03-31</t>
+            <t xml:space="preserve">1998-06-30</t>
           </r>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20516.5</t>
+            <t xml:space="preserve">23574.7</t>
           </r>
         </is>
       </c>
@@ -4763,14 +4763,14 @@
       <c r="A290" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-02-28</t>
+            <t xml:space="preserve">1998-05-31</t>
           </r>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19836.2</t>
+            <t xml:space="preserve">23275.2</t>
           </r>
         </is>
       </c>
@@ -4779,14 +4779,14 @@
       <c r="A291" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1998-01-31</t>
+            <t xml:space="preserve">1998-04-30</t>
           </r>
         </is>
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19572</t>
+            <t xml:space="preserve">20484.1</t>
           </r>
         </is>
       </c>
@@ -4795,14 +4795,14 @@
       <c r="A292" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-12-31</t>
+            <t xml:space="preserve">1998-03-31</t>
           </r>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18398.8</t>
+            <t xml:space="preserve">20516.5</t>
           </r>
         </is>
       </c>
@@ -4811,14 +4811,14 @@
       <c r="A293" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-11-30</t>
+            <t xml:space="preserve">1998-02-28</t>
           </r>
         </is>
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15966.7</t>
+            <t xml:space="preserve">19836.2</t>
           </r>
         </is>
       </c>
@@ -4827,14 +4827,14 @@
       <c r="A294" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1997-10-31</t>
+            <t xml:space="preserve">1998-01-31</t>
           </r>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15564.4</t>
+            <t xml:space="preserve">19572</t>
           </r>
         </is>
       </c>
@@ -4843,11 +4843,59 @@
       <c r="A295" s="3" t="inlineStr">
         <is>
           <r>
+            <t xml:space="preserve">1997-12-31</t>
+          </r>
+        </is>
+      </c>
+      <c r="B295" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">18398.8</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="296" customHeight="1" ht="10">
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1997-11-30</t>
+          </r>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">15966.7</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="297" customHeight="1" ht="10">
+      <c r="A297" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1997-10-31</t>
+          </r>
+        </is>
+      </c>
+      <c r="B297" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">15564.4</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="298" customHeight="1" ht="10">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <r>
             <t xml:space="preserve">1997-09-30</t>
           </r>
         </is>
       </c>
-      <c r="B295" s="3" t="inlineStr">
+      <c r="B298" s="2" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">15999.5</t>
